--- a/audible_data.xlsx
+++ b/audible_data.xlsx
@@ -20,6 +20,14 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Literature &amp; Fiction" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Money &amp; Finance" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mystery, Thriller &amp; Suspense" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Politics &amp; Social Sciences" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relationships, Parenting &amp; Personal Development" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Religion &amp; Spirituality" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Romance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Science &amp; Engineering" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Science Fiction &amp; Fantasy" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sports &amp; Outdoors" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Teen" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1145,7 +1153,975 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subcat-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subcat-2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subcat-3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subcat-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Web-Link</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Listening Length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Narrator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Whispersync for Voice</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Audible.com Release Date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subcat-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subcat-2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subcat-3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subcat-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Web-Link</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Listening Length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Narrator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Whispersync for Voice</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Audible.com Release Date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subcat-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subcat-2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subcat-3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subcat-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Web-Link</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Listening Length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Narrator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Whispersync for Voice</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Audible.com Release Date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subcat-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subcat-2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subcat-3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subcat-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Web-Link</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Listening Length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Narrator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Whispersync for Voice</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Audible.com Release Date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subcat-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subcat-2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subcat-3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subcat-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Web-Link</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Listening Length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Narrator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Whispersync for Voice</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Audible.com Release Date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subcat-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subcat-2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subcat-3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subcat-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Web-Link</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Listening Length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Narrator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Whispersync for Voice</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Audible.com Release Date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subcat-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subcat-2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subcat-3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subcat-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Web-Link</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Listening Length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Narrator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Whispersync for Voice</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Audible.com Release Date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>subcat-1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>subcat-2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>subcat-3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>subcat-4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Web-Link</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Ratings</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Stars</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Listening Length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Author</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Narrator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Whispersync for Voice</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Audible.com Release Date</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Publisher</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Program Type</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Version</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Best Sellers Rank</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
